--- a/src/main/resources/static/doc/Test.xlsx
+++ b/src/main/resources/static/doc/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Лич</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>22грн</t>
+  </si>
+  <si>
+    <t>7грн</t>
+  </si>
+  <si>
+    <t>10грн</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -401,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
